--- a/public_html/ADG/countermeasures.xlsx
+++ b/public_html/ADG/countermeasures.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/public_html/ADG/countermeasures.xlsx
+++ b/public_html/ADG/countermeasures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,781 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CVE-2021-31986</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>listHostVulnerabilities(_host)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CVE-2021-31986</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>patchVulnerability(_machine, _vulID _program)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>vulExists(_machine, _vulID, _program, _range, _consequence)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CVE-2021-31987</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>listHostVulnerabilities(_host)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CVE-2021-31987</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>patchVulnerability(_machine, _vulID _program)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>vulExists(_machine, _vulID, _program, _range, _consequence)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>C5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CVE-2021-31988</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>listHostVulnerabilities(_host)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>C6</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CVE-2021-31988</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>patchVulnerability(_machine, _vulID _program)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>vulExists(_machine, _vulID, _program, _range, _consequence)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>C7</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CVE-2021-3449</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>listHostVulnerabilities(_host)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>C8</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CVE-2021-3449</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>findFilePath(_host, _path)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>nfsExportInfo(_server, _path, _access, _client)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>C9</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CVE-2021-3449</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>listHostsCommunicatedPort(_port)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>C10</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CVE-2021-3449</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>blockUserExternalCommunication(_principal)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>C11</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CVE-2021-3449</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>patchVulnerability(_machine, _vulID _program)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>vulExists(_machine, _vulID, _program, _range, _consequence)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>C12</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CVE-2021-3450</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>findProcessExecutableFormat(_host)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>netAccess(_machine, _protocol, _port)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>C13</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>CVE-2021-3450</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>findFilePath(_host, _path)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>nfsExportInfo(_server, _path, _access, _client)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>C14</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>CVE-2021-3450</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>listHostVulnerabilities(_host)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>C15</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>CVE-2021-3711</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>listHostVulnerabilities(_host)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>C16</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>CVE-2021-3711</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>findFilePath(_host, _path)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>nfsExportInfo(_server, _path, _access, _client)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>C17</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>CVE-2021-3711</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>listHostsCommunicatedPort(_port)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>C18</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>CVE-2021-3711</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>blockUserExternalCommunication(_principal)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>C19</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>CVE-2021-3711</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>patchVulnerability(_machine, _vulID _program)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>vulExists(_machine, _vulID, _program, _range, _consequence)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>C20</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>CVE-2021-3712</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>findFilePath(_host, _path)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>nfsExportInfo(_server, _path, _access, _client)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>C21</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>CVE-2021-3712</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>listHostVulnerabilities(_host)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>C22</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>CVE-2022-1292</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>listHostVulnerabilities(_host)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>C23</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CVE-2022-1292</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>findFilePath(_host, _path)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>nfsExportInfo(_server, _path, _access, _client)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>C24</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>CVE-2022-1292</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>listHostsCommunicatedPort(_port)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>C25</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>CVE-2022-1292</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>blockUserExternalCommunication(_principal)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>C26</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>CVE-2022-1292</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>patchVulnerability(_machine, _vulID _program)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>vulExists(_machine, _vulID, _program, _range, _consequence)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>C27</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>CVE-2022-2068</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>listHostVulnerabilities(_host)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>C28</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>CVE-2022-2068</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>findFilePath(_host, _path)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>nfsExportInfo(_server, _path, _access, _client)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>C29</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>CVE-2022-2068</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>listHostsCommunicatedPort(_port)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>C30</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>CVE-2022-2068</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>blockUserExternalCommunication(_principal)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>C31</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>CVE-2022-2068</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>patchVulnerability(_machine, _vulID _program)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>vulExists(_machine, _vulID, _program, _range, _consequence)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/public_html/ADG/countermeasures.xlsx
+++ b/public_html/ADG/countermeasures.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CVE-2013-3200</t>
+          <t>CVE-2019-0708</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CVE-2013-3200</t>
+          <t>CVE-2019-0708</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">

--- a/public_html/ADG/countermeasures.xlsx
+++ b/public_html/ADG/countermeasures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CVE-2019-0708</t>
+          <t>CVE-2021-31986</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CVE-2019-0708</t>
+          <t>CVE-2021-31986</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -500,6 +500,731 @@
         </is>
       </c>
       <c r="E3" t="inlineStr">
+        <is>
+          <t>vulExists(_machine, _vulID, _program, _range, _consequence)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CVE-2021-31987</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>listHostVulnerabilities(_host)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CVE-2021-31987</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>patchVulnerability(_machine, _vulID _program)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>vulExists(_machine, _vulID, _program, _range, _consequence)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>C5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CVE-2021-31988</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>listHostVulnerabilities(_host)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>C6</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CVE-2021-31988</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>patchVulnerability(_machine, _vulID _program)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>vulExists(_machine, _vulID, _program, _range, _consequence)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>C7</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CVE-2021-3449</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>listHostVulnerabilities(_host)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>C8</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CVE-2021-3449</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>findFilePath(_host, _path)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>nfsExportInfo(_server, _path, _access, _client)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>C9</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CVE-2021-3449</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>listHostsCommunicatedPort(_port)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>C10</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CVE-2021-3449</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>blockUserExternalCommunication(_principal)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>C11</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CVE-2021-3449</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>patchVulnerability(_machine, _vulID _program)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>vulExists(_machine, _vulID, _program, _range, _consequence)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>C12</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CVE-2021-3450</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>findProcessExecutableFormat(_host)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>netAccess(_machine, _protocol, _port)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>C13</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>CVE-2021-3450</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>findFilePath(_host, _path)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>nfsExportInfo(_server, _path, _access, _client)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>C14</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>CVE-2021-3450</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>listHostVulnerabilities(_host)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>C15</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>CVE-2021-3711</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>listHostVulnerabilities(_host)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>C16</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>CVE-2021-3711</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>findFilePath(_host, _path)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>nfsExportInfo(_server, _path, _access, _client)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>C17</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>CVE-2021-3711</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>listHostsCommunicatedPort(_port)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>C18</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>CVE-2021-3711</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>blockUserExternalCommunication(_principal)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>C19</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>CVE-2021-3711</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>patchVulnerability(_machine, _vulID _program)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>vulExists(_machine, _vulID, _program, _range, _consequence)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>C20</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>CVE-2021-3712</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>findFilePath(_host, _path)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>nfsExportInfo(_server, _path, _access, _client)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>C21</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>CVE-2021-3712</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>listHostVulnerabilities(_host)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>C22</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>CVE-2022-1292</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>listHostVulnerabilities(_host)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>C23</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CVE-2022-1292</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>findFilePath(_host, _path)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>nfsExportInfo(_server, _path, _access, _client)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>C24</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>CVE-2022-1292</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>listHostsCommunicatedPort(_port)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>C25</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>CVE-2022-1292</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>blockUserExternalCommunication(_principal)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>C26</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>CVE-2022-1292</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>patchVulnerability(_machine, _vulID _program)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>vulExists(_machine, _vulID, _program, _range, _consequence)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>C27</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>CVE-2022-2068</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>listHostVulnerabilities(_host)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>C28</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>CVE-2022-2068</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>findFilePath(_host, _path)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>nfsExportInfo(_server, _path, _access, _client)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>C29</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>CVE-2022-2068</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>listHostsCommunicatedPort(_port)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>C30</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>CVE-2022-2068</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>blockUserExternalCommunication(_principal)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>C31</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>CVE-2022-2068</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>patchVulnerability(_machine, _vulID _program)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>vulExists(_machine, _vulID, _program, _range, _consequence)</t>
         </is>

--- a/public_html/ADG/countermeasures.xlsx
+++ b/public_html/ADG/countermeasures.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CVE-2013-6966</t>
+          <t>CVE-2012-0002</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CVE-2013-6966</t>
+          <t>CVE-2012-0002</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">

--- a/public_html/ADG/countermeasures.xlsx
+++ b/public_html/ADG/countermeasures.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CVE-2012-0002</t>
+          <t>CVE-2021-26868</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CVE-2012-0002</t>
+          <t>CVE-2021-26868</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">

--- a/public_html/ADG/countermeasures.xlsx
+++ b/public_html/ADG/countermeasures.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CVE-2021-26868</t>
+          <t>CVE-2012-0002</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CVE-2021-26868</t>
+          <t>CVE-2012-0002</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">

--- a/public_html/ADG/countermeasures.xlsx
+++ b/public_html/ADG/countermeasures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,17 +466,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CVE-2012-0002</t>
+          <t>CVE-2021-26828</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>listHostVulnerabilities(_host)</t>
+          <t>findProcessExecutableFormat(_host)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+          <t>netAccess(_machine, _protocol, _port)</t>
         </is>
       </c>
     </row>
@@ -491,17 +491,67 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CVE-2012-0002</t>
+          <t>CVE-2021-26828</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>patchVulnerability(_machine, _vulID _program)</t>
+          <t>listHostsCommunicatedPort(_port)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>vulExists(_machine, _vulID, _program, _range, _consequence)</t>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CVE-2021-26828</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>blockUserExternalCommunication(_principal)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CVE-2021-26828</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>blockProcessExecutableFormat(_host)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>netAccess(_machine, _protocol, _port)</t>
         </is>
       </c>
     </row>

--- a/public_html/ADG/countermeasures.xlsx
+++ b/public_html/ADG/countermeasures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,12 +496,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>listHostsCommunicatedPort(_port)</t>
+          <t>findProcessExecutableFormat(_host)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+          <t>netAccess(_machine, _protocol, _port)</t>
         </is>
       </c>
     </row>
@@ -521,12 +521,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>blockUserExternalCommunication(_principal)</t>
+          <t>findProcessExecutableFormat(_host)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+          <t>netAccess(_machine, _protocol, _port)</t>
         </is>
       </c>
     </row>
@@ -546,12 +546,512 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>findProcessExecutableFormat(_host)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>accessFile(_machine, _access, _filepath)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>C5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CVE-2021-26828</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>findProcessExecutableFormat(_host)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>accessFile(_machine, _access, _filepath)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>C6</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CVE-2021-26828</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>findProcessExecutableFormat(_host)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>accessFile(_machine, _access, _filepath)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>C7</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CVE-2021-26828</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>findProcessExecutableFormat(_host)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>execCode(_host, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>C8</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CVE-2021-26828</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>findProcessExecutableFormat(_host)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>execCode(_host, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>C9</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CVE-2021-26828</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>listHostsCommunicatedPort(_port)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>C10</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CVE-2021-26828</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>listHostsCommunicatedPort(_port)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>C11</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CVE-2021-26828</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>listHostsCommunicatedPort(_port)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>hacl(_src, _dst, _prot, _port)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>C12</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CVE-2021-26828</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>listHostsCommunicatedPort(_port)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>hasAccount(_principal, _host, _account)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>C13</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>CVE-2021-26828</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>listHostsCommunicatedPort(_port)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>netAccess(_machine, _protocol, _port)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>C14</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>CVE-2021-26828</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>listHostsCommunicatedPort(_port)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>execCode(_host, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>C15</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>CVE-2021-26828</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>blockUserExternalCommunication(_principal)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>C16</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>CVE-2021-26828</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>blockUserExternalCommunication(_principal)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>execCode(_host, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>C17</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>CVE-2021-26828</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>blockProcessExecutableFormat(_host)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>netAccess(_machine, _protocol, _port)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>C18</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>CVE-2021-26828</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>blockProcessExecutableFormat(_host)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>netAccess(_machine, _protocol, _port)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>C19</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>CVE-2021-26828</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>blockProcessExecutableFormat(_host)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>netAccess(_machine, _protocol, _port)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>C20</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>CVE-2021-26828</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>blockProcessExecutableFormat(_host)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>accessFile(_machine, _access, _filepath)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>C21</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>CVE-2021-26828</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>blockProcessExecutableFormat(_host)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>accessFile(_machine, _access, _filepath)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>C22</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>CVE-2021-26828</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>blockProcessExecutableFormat(_host)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>accessFile(_machine, _access, _filepath)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>C23</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CVE-2021-26828</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>blockProcessExecutableFormat(_host)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>execCode(_host, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>C24</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>CVE-2021-26828</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>blockProcessExecutableFormat(_host)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>execCode(_host, _user)</t>
         </is>
       </c>
     </row>

--- a/public_html/ADG/countermeasures.xlsx
+++ b/public_html/ADG/countermeasures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1055,6 +1055,231 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>C25</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>CVE-2023-48795</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>listHostsCommunicatedPort(_port)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>C26</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>CVE-2023-48795</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>listHostsCommunicatedPort(_port)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>C27</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>CVE-2023-48795</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>listHostsCommunicatedPort(_port)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>hacl(_src, _dst, _prot, _port)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>C28</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>CVE-2023-48795</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>listHostsCommunicatedPort(_port)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>hasAccount(_principal, _host, _account)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>C29</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>CVE-2023-48795</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>listHostsCommunicatedPort(_port)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>netAccess(_machine, _protocol, _port)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>C30</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>CVE-2023-48795</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>listHostsCommunicatedPort(_port)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>execCode(_host, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>C31</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>CVE-2023-48795</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>blockUserExternalCommunication(_principal)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>C32</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>CVE-2023-48795</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>blockUserExternalCommunication(_principal)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>execCode(_host, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>C33</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>CVE-2023-48795</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>unblockBlockedUser(_principal)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/public_html/ADG/countermeasures.xlsx
+++ b/public_html/ADG/countermeasures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,6 +555,456 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>C5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CVE-2023-48795</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>listHostsCommunicatedPort(_port)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>C6</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CVE-2023-48795</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>listHostsCommunicatedPort(_port)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>C7</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CVE-2023-48795</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>listHostsCommunicatedPort(_port)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>hacl(_src, _dst, _prot, _port)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>C8</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CVE-2023-48795</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>listHostsCommunicatedPort(_port)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>hasAccount(_principal, _host, _account)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>C9</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CVE-2023-48795</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>listHostsCommunicatedPort(_port)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>netAccess(_machine, _protocol, _port)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>C10</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CVE-2023-48795</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>listHostsCommunicatedPort(_port)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>execCode(_host, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>C11</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CVE-2023-48795</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>blockUserExternalCommunication(_principal)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>C12</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CVE-2023-48795</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>blockUserExternalCommunication(_principal)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>execCode(_host, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>C13</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>CVE-2023-48795</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>unblockBlockedUser(_principal)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>C14</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>CVE-2023-48795</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>listHostsCommunicatedPort(_port)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>C15</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>CVE-2023-48795</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>listHostsCommunicatedPort(_port)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>C16</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>CVE-2023-48795</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>listHostsCommunicatedPort(_port)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>hacl(_src, _dst, _prot, _port)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>C17</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>CVE-2023-48795</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>listHostsCommunicatedPort(_port)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>hasAccount(_principal, _host, _account)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>C18</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>CVE-2023-48795</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>listHostsCommunicatedPort(_port)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>netAccess(_machine, _protocol, _port)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>C19</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>CVE-2023-48795</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>listHostsCommunicatedPort(_port)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>execCode(_host, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>C20</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>CVE-2023-48795</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>blockUserExternalCommunication(_principal)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>C21</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>CVE-2023-48795</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>blockUserExternalCommunication(_principal)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>execCode(_host, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>C22</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>CVE-2023-48795</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>unblockBlockedUser(_principal)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/public_html/ADG/countermeasures.xlsx
+++ b/public_html/ADG/countermeasures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,7 +526,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>execCode(_host, _user)</t>
+          <t>netAccess(_machine, _protocol, _port)</t>
         </is>
       </c>
     </row>
@@ -546,12 +546,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>patchVulnerability(_machine, _vulID _program)</t>
+          <t>listHostVulnerabilities(_host)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>vulExists(_machine, _vulID, _program, _range, _consequence)</t>
+          <t>execCode(_host, _user)</t>
         </is>
       </c>
     </row>
@@ -566,17 +566,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CVE-2023-48795</t>
+          <t>CVE-2019-0708</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>listHostsCommunicatedPort(_port)</t>
+          <t>patchVulnerability(_machine, _vulID _program)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+          <t>vulExists(_machine, _vulID, _program, _range, _consequence)</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>hacl(_src, _dst, _prot, _port)</t>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>hasAccount(_principal, _host, _account)</t>
+          <t>hacl(_src, _dst, _prot, _port)</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>netAccess(_machine, _protocol, _port)</t>
+          <t>hasAccount(_principal, _host, _account)</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>execCode(_host, _user)</t>
+          <t>netAccess(_machine, _protocol, _port)</t>
         </is>
       </c>
     </row>
@@ -721,12 +721,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>blockUserExternalCommunication(_principal)</t>
+          <t>listHostsCommunicatedPort(_port)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+          <t>execCode(_host, _user)</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>execCode(_host, _user)</t>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
         </is>
       </c>
     </row>
@@ -771,12 +771,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>unblockBlockedUser(_principal)</t>
+          <t>blockUserExternalCommunication(_principal)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+          <t>execCode(_host, _user)</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>listHostsCommunicatedPort(_port)</t>
+          <t>unblockBlockedUser(_principal)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>hacl(_src, _dst, _prot, _port)</t>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>hasAccount(_principal, _host, _account)</t>
+          <t>hacl(_src, _dst, _prot, _port)</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>netAccess(_machine, _protocol, _port)</t>
+          <t>hasAccount(_principal, _host, _account)</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>execCode(_host, _user)</t>
+          <t>netAccess(_machine, _protocol, _port)</t>
         </is>
       </c>
     </row>
@@ -946,12 +946,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>blockUserExternalCommunication(_principal)</t>
+          <t>listHostsCommunicatedPort(_port)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+          <t>execCode(_host, _user)</t>
         </is>
       </c>
     </row>
@@ -976,7 +976,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>execCode(_host, _user)</t>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
         </is>
       </c>
     </row>
@@ -996,10 +996,35 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>blockUserExternalCommunication(_principal)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>execCode(_host, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>C23</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CVE-2023-48795</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>unblockBlockedUser(_principal)</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
         </is>

--- a/public_html/ADG/countermeasures.xlsx
+++ b/public_html/ADG/countermeasures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1030,6 +1030,831 @@
         </is>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>C24</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>CVE-2021-26828</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>findProcessExecutableFormat(_host)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>netAccess(_machine, _protocol, _port)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>C25</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>CVE-2021-26828</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>findProcessExecutableFormat(_host)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>netAccess(_machine, _protocol, _port)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>C26</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>CVE-2021-26828</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>findProcessExecutableFormat(_host)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>netAccess(_machine, _protocol, _port)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>C27</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>CVE-2021-26828</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>findProcessExecutableFormat(_host)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>accessFile(_machine, _access, _filepath)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>C28</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>CVE-2021-26828</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>findProcessExecutableFormat(_host)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>accessFile(_machine, _access, _filepath)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>C29</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>CVE-2021-26828</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>findProcessExecutableFormat(_host)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>accessFile(_machine, _access, _filepath)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>C30</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>CVE-2021-26828</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>findProcessExecutableFormat(_host)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>execCode(_host, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>C31</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>CVE-2021-26828</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>findProcessExecutableFormat(_host)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>execCode(_host, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>C32</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>CVE-2021-26828</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>listHostsCommunicatedPort(_port)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>C33</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>CVE-2021-26828</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>listHostsCommunicatedPort(_port)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>C34</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>CVE-2021-26828</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>listHostsCommunicatedPort(_port)</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>hacl(_src, _dst, _prot, _port)</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>C35</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>CVE-2021-26828</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>listHostsCommunicatedPort(_port)</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>hasAccount(_principal, _host, _account)</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>C36</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>CVE-2021-26828</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>listHostsCommunicatedPort(_port)</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>netAccess(_machine, _protocol, _port)</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>C37</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>CVE-2021-26828</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>listHostsCommunicatedPort(_port)</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>execCode(_host, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>C38</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>CVE-2021-26828</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>blockUserExternalCommunication(_principal)</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>C39</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>CVE-2021-26828</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>blockUserExternalCommunication(_principal)</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>execCode(_host, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>C40</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>CVE-2021-26828</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>blockProcessExecutableFormat(_host)</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>netAccess(_machine, _protocol, _port)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>C41</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>CVE-2021-26828</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>blockProcessExecutableFormat(_host)</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>netAccess(_machine, _protocol, _port)</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>C42</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>CVE-2021-26828</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>blockProcessExecutableFormat(_host)</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>netAccess(_machine, _protocol, _port)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>C43</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>CVE-2021-26828</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>blockProcessExecutableFormat(_host)</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>accessFile(_machine, _access, _filepath)</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>CVE-2021-26828</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>blockProcessExecutableFormat(_host)</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>accessFile(_machine, _access, _filepath)</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>C45</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>CVE-2021-26828</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>blockProcessExecutableFormat(_host)</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>accessFile(_machine, _access, _filepath)</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>C46</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>CVE-2021-26828</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>blockProcessExecutableFormat(_host)</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>execCode(_host, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>C47</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>CVE-2021-26828</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>blockProcessExecutableFormat(_host)</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>execCode(_host, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>C48</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>CVE-2023-48795</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>listHostsCommunicatedPort(_port)</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>C49</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>CVE-2023-48795</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>listHostsCommunicatedPort(_port)</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>C50</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>CVE-2023-48795</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>listHostsCommunicatedPort(_port)</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>hacl(_src, _dst, _prot, _port)</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>C51</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>CVE-2023-48795</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>listHostsCommunicatedPort(_port)</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>hasAccount(_principal, _host, _account)</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>C52</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>CVE-2023-48795</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>listHostsCommunicatedPort(_port)</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>netAccess(_machine, _protocol, _port)</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>C53</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>CVE-2023-48795</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>listHostsCommunicatedPort(_port)</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>execCode(_host, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>C54</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>CVE-2023-48795</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>blockUserExternalCommunication(_principal)</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>C55</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>CVE-2023-48795</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>blockUserExternalCommunication(_principal)</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>execCode(_host, _user)</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>C56</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>CVE-2023-48795</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>unblockBlockedUser(_principal)</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>networkServiceInfo(_host, _program, _protocol, _port, _user)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
